--- a/src/main/java/QLBN/DanhsachBenhNhan.xlsx
+++ b/src/main/java/QLBN/DanhsachBenhNhan.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="86">
   <si>
     <t/>
   </si>
@@ -41,6 +41,12 @@
     <t>Số điện thoại</t>
   </si>
   <si>
+    <t>CCCD</t>
+  </si>
+  <si>
+    <t>BHYT</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -59,6 +65,57 @@
     <t>0901111222</t>
   </si>
   <si>
+    <t>76678.0</t>
+  </si>
+  <si>
+    <t>687678.0</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Hoàng Nhật Linh</t>
+  </si>
+  <si>
+    <t>2004-07-12</t>
+  </si>
+  <si>
+    <t>Nữ</t>
+  </si>
+  <si>
+    <t>543 Đường Phan Đăng Lưu, TP.HCM</t>
+  </si>
+  <si>
+    <t>0990000111</t>
+  </si>
+  <si>
+    <t>53453.0</t>
+  </si>
+  <si>
+    <t>3.4534534E7</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Hoàng Nhật Lan</t>
+  </si>
+  <si>
+    <t>2004-07-13</t>
+  </si>
+  <si>
+    <t>544 Đường Phan Đăng Lưu, TP.HCM</t>
+  </si>
+  <si>
+    <t>0990000112</t>
+  </si>
+  <si>
+    <t>5335.0</t>
+  </si>
+  <si>
+    <t>3535.0</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
@@ -68,15 +125,18 @@
     <t>2004-07-04</t>
   </si>
   <si>
-    <t>Nữ</t>
-  </si>
-  <si>
     <t>456 Đường Trường Chinh, TP.HCM</t>
   </si>
   <si>
     <t>0912222333</t>
   </si>
   <si>
+    <t>3543.0</t>
+  </si>
+  <si>
+    <t>3.4534567E7</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
@@ -92,6 +152,12 @@
     <t>0923333444</t>
   </si>
   <si>
+    <t>3545345.0</t>
+  </si>
+  <si>
+    <t>345.0</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
@@ -107,6 +173,9 @@
     <t>0934444555</t>
   </si>
   <si>
+    <t>5677.0</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
@@ -122,6 +191,9 @@
     <t>0945555666</t>
   </si>
   <si>
+    <t>345345.0</t>
+  </si>
+  <si>
     <t>6</t>
   </si>
   <si>
@@ -137,6 +209,9 @@
     <t>0956666777</t>
   </si>
   <si>
+    <t>35.0</t>
+  </si>
+  <si>
     <t>7</t>
   </si>
   <si>
@@ -152,6 +227,12 @@
     <t>0967777888</t>
   </si>
   <si>
+    <t>53.0</t>
+  </si>
+  <si>
+    <t>78689.0</t>
+  </si>
+  <si>
     <t>8</t>
   </si>
   <si>
@@ -167,6 +248,12 @@
     <t>0978888999</t>
   </si>
   <si>
+    <t>45345.0</t>
+  </si>
+  <si>
+    <t>34.0</t>
+  </si>
+  <si>
     <t>9</t>
   </si>
   <si>
@@ -182,34 +269,7 @@
     <t>0989999000</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Hoàng Nhật Linh</t>
-  </si>
-  <si>
-    <t>2004-07-12</t>
-  </si>
-  <si>
-    <t>543 Đường Phan Đăng Lưu, TP.HCM</t>
-  </si>
-  <si>
-    <t>0990000111</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>Nguyễn Mạnh Tuấn</t>
-  </si>
-  <si>
-    <t>2004-04-04</t>
-  </si>
-  <si>
-    <t>Hà Nội</t>
-  </si>
-  <si>
-    <t>0987876765</t>
+    <t>35453.0</t>
   </si>
 </sst>
 </file>
@@ -289,7 +349,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A3:G15"/>
+  <dimension ref="A3:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -301,6 +361,8 @@
     <col min="4" max="4" width="9.4296875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="8.6484375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.96484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="12.04296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="8.76171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="3" ht="25.0" customHeight="true">
@@ -330,28 +392,40 @@
       <c r="G4" t="s" s="1">
         <v>8</v>
       </c>
+      <c r="H4" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="I4" t="s" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" ht="20.0" customHeight="true">
       <c r="A5" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" ht="20.0" customHeight="true">
@@ -359,22 +433,28 @@
         <v>2.0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7" ht="20.0" customHeight="true">
@@ -382,22 +462,28 @@
         <v>3.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="F7" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8" ht="20.0" customHeight="true">
@@ -405,22 +491,28 @@
         <v>4.0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="9" ht="20.0" customHeight="true">
@@ -428,22 +520,28 @@
         <v>5.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="10" ht="20.0" customHeight="true">
@@ -451,22 +549,28 @@
         <v>6.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>40</v>
+        <v>52</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="11" ht="20.0" customHeight="true">
@@ -474,22 +578,28 @@
         <v>7.0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="12" ht="20.0" customHeight="true">
@@ -497,22 +607,28 @@
         <v>8.0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="13" ht="20.0" customHeight="true">
@@ -520,22 +636,28 @@
         <v>9.0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>55</v>
+        <v>70</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="14" ht="20.0" customHeight="true">
@@ -543,22 +665,28 @@
         <v>10.0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>60</v>
+        <v>77</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="15" ht="20.0" customHeight="true">
@@ -566,22 +694,28 @@
         <v>11.0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>65</v>
+        <v>84</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
